--- a/src/test/resources/testdata/OpenCartTestData.xlsx
+++ b/src/test/resources/testdata/OpenCartTestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumLearning\Feb2024POMSeries\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154653A-5AFA-4155-B056-51C89E782CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE52185-B41B-475B-B3D7-E8DD7472753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4A8809BD-A248-49AC-A654-ACBF58D41682}"/>
   </bookViews>
@@ -701,7 +701,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +763,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
